--- a/server/src/api/INPUT_/answer.xlsx
+++ b/server/src/api/INPUT_/answer.xlsx
@@ -8,24 +8,42 @@
   </bookViews>
   <sheets>
     <sheet name="Статистика" sheetId="1" r:id="rId1"/>
-    <sheet name="Спорт" sheetId="2" r:id="rId2"/>
-    <sheet name="Технологии" sheetId="3" r:id="rId3"/>
-    <sheet name="Финансы" sheetId="4" r:id="rId4"/>
-    <sheet name="Политика" sheetId="5" r:id="rId5"/>
-    <sheet name="Шоубизнес" sheetId="6" r:id="rId6"/>
-    <sheet name="Мода" sheetId="7" r:id="rId7"/>
-    <sheet name="Криптовалюта" sheetId="8" r:id="rId8"/>
+    <sheet name="Блоги" sheetId="2" r:id="rId2"/>
+    <sheet name="Новости и СМИ" sheetId="3" r:id="rId3"/>
+    <sheet name="Развлечения и юмор" sheetId="4" r:id="rId4"/>
+    <sheet name="Технологии" sheetId="5" r:id="rId5"/>
+    <sheet name="Экономика" sheetId="6" r:id="rId6"/>
+    <sheet name="Бизнес и стартапы" sheetId="7" r:id="rId7"/>
+    <sheet name="Криптовалюты" sheetId="8" r:id="rId8"/>
     <sheet name="Путешествия" sheetId="9" r:id="rId9"/>
-    <sheet name="Образование" sheetId="10" r:id="rId10"/>
-    <sheet name="Развлечения" sheetId="11" r:id="rId11"/>
-    <sheet name="Общее" sheetId="12" r:id="rId12"/>
+    <sheet name="Маркетинг, PR, реклама" sheetId="10" r:id="rId10"/>
+    <sheet name="Психология" sheetId="11" r:id="rId11"/>
+    <sheet name="Дизайн" sheetId="12" r:id="rId12"/>
+    <sheet name="Политика" sheetId="13" r:id="rId13"/>
+    <sheet name="Искусство" sheetId="14" r:id="rId14"/>
+    <sheet name="Право" sheetId="15" r:id="rId15"/>
+    <sheet name="Образование и познавательное" sheetId="16" r:id="rId16"/>
+    <sheet name="Спорт" sheetId="17" r:id="rId17"/>
+    <sheet name="Мода и красота" sheetId="18" r:id="rId18"/>
+    <sheet name="Здоровье и медицина" sheetId="19" r:id="rId19"/>
+    <sheet name="Картинки и фото" sheetId="20" r:id="rId20"/>
+    <sheet name="Софт и приложения" sheetId="21" r:id="rId21"/>
+    <sheet name="Видео и фильмы" sheetId="22" r:id="rId22"/>
+    <sheet name="Музыка" sheetId="23" r:id="rId23"/>
+    <sheet name="Игры" sheetId="24" r:id="rId24"/>
+    <sheet name="Еда и кулинария" sheetId="25" r:id="rId25"/>
+    <sheet name="Цитаты" sheetId="26" r:id="rId26"/>
+    <sheet name="Рукоделие" sheetId="27" r:id="rId27"/>
+    <sheet name="Финансы" sheetId="28" r:id="rId28"/>
+    <sheet name="Шоубиз" sheetId="29" r:id="rId29"/>
+    <sheet name="Другое" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>Название категории</t>
   </si>
@@ -36,37 +54,94 @@
     <t>Количество без дубликтов</t>
   </si>
   <si>
+    <t>Количество дубликтов</t>
+  </si>
+  <si>
+    <t>Блоги</t>
+  </si>
+  <si>
+    <t>Новости и СМИ</t>
+  </si>
+  <si>
+    <t>Развлечения и юмор</t>
+  </si>
+  <si>
+    <t>Технологии</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Бизнес и стартапы</t>
+  </si>
+  <si>
+    <t>Криптовалюты</t>
+  </si>
+  <si>
+    <t>Путешествия</t>
+  </si>
+  <si>
+    <t>Маркетинг, PR, реклама</t>
+  </si>
+  <si>
+    <t>Психология</t>
+  </si>
+  <si>
+    <t>Дизайн</t>
+  </si>
+  <si>
+    <t>Политика</t>
+  </si>
+  <si>
+    <t>Искусство</t>
+  </si>
+  <si>
+    <t>Право</t>
+  </si>
+  <si>
+    <t>Образование и познавательное</t>
+  </si>
+  <si>
     <t>Спорт</t>
   </si>
   <si>
-    <t>Технологии</t>
+    <t>Мода и красота</t>
+  </si>
+  <si>
+    <t>Здоровье и медицина</t>
+  </si>
+  <si>
+    <t>Картинки и фото</t>
+  </si>
+  <si>
+    <t>Софт и приложения</t>
+  </si>
+  <si>
+    <t>Видео и фильмы</t>
+  </si>
+  <si>
+    <t>Музыка</t>
+  </si>
+  <si>
+    <t>Игры</t>
+  </si>
+  <si>
+    <t>Еда и кулинария</t>
+  </si>
+  <si>
+    <t>Цитаты</t>
+  </si>
+  <si>
+    <t>Рукоделие</t>
   </si>
   <si>
     <t>Финансы</t>
   </si>
   <si>
-    <t>Политика</t>
-  </si>
-  <si>
-    <t>Шоубизнес</t>
-  </si>
-  <si>
-    <t>Мода</t>
-  </si>
-  <si>
-    <t>Криптовалюта</t>
-  </si>
-  <si>
-    <t>Путешествия</t>
-  </si>
-  <si>
-    <t>Образование</t>
-  </si>
-  <si>
-    <t>Развлечения</t>
-  </si>
-  <si>
-    <t>Общее</t>
+    <t>Шоубиз</t>
+  </si>
+  <si>
+    <t>Другое</t>
   </si>
   <si>
     <t>ID канала</t>
@@ -75,28 +150,49 @@
     <t>Сообщения без дубликтов</t>
   </si>
   <si>
+    <t>В России запустили отечественную блокчейн-платформу «Конфидент» В России запустили полностью отечественную блокчейн-платформу «Конфидент»Новая разработка представляет собой готовую инфраструктуру для информационных блокчейн-систем — от слоя для работы нод сети до уровня приложений, где выполняются автоматизированные бизнес-процессы</t>
+  </si>
+  <si>
     <t>Как одеться в стиле old money: берем пример с «Наследников» и «Короны»</t>
   </si>
   <si>
+    <t>Новости шоу-бизнеса. Оправдания Галкина, Меладзе и Лорак не дают вернуться и другие</t>
+  </si>
+  <si>
+    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
+  </si>
+  <si>
+    <t>Новости шоу-бизнеса. Павел Прилучный устроил разборку в центре Москвы, на шоу "Ледниковый период" снова замены и другие</t>
+  </si>
+  <si>
+    <t>Первая в мире GeForce RTX 4070, к которой не нужно подключать никаких кабелей питания. Представлена Asus GeForce RTX 4070 Gaming BTF</t>
+  </si>
+  <si>
+    <t>Презентация Apple, Google врывается в чужой суд, Xiaomi и Huawei договариваются о сотрудничестве: дайджест недели</t>
+  </si>
+  <si>
+    <t>Швейцария обогнала США по уровню принятия криптовалютm. Лидирующую позицию в рейтинге стран по готовности к внедрению цифровых активов второй год подряд занимает Гонконг</t>
+  </si>
+  <si>
+    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
+  </si>
+  <si>
+    <t>Гол Бабича на 91‑й минуте принес «Спартаку» победу над «Сочи» в матче РПЛ</t>
+  </si>
+  <si>
+    <t>Звезда турецкого шоу-бизнеса Демет Оздемир вновь оказалась в центре скандала. Недавно появились сообщения о том, что актриса приобрела дом в Афинах и обрела вторую половинку в лице греческого диджея Серджио.</t>
+  </si>
+  <si>
+    <t>Глава СНБО Данилов перечислил меры помощи Украины для партнеров</t>
+  </si>
+  <si>
     <t>Польша проведет учения с использованием новых танков K2 у границы с Россией</t>
   </si>
   <si>
-    <t>Глава СНБО Данилов перечислил меры помощи Украины для партнеров</t>
-  </si>
-  <si>
-    <t>Звезда турецкого шоу-бизнеса Демет Оздемир вновь оказалась в центре скандала. Недавно появились сообщения о том, что актриса приобрела дом в Афинах и обрела вторую половинку в лице греческого диджея Серджио.</t>
-  </si>
-  <si>
-    <t>Швейцария обогнала США по уровню принятия криптовалютm. Лидирующую позицию в рейтинге стран по готовности к внедрению цифровых активов второй год подряд занимает Гонконг</t>
-  </si>
-  <si>
-    <t>В России запустили отечественную блокчейн-платформу «Конфидент» В России запустили полностью отечественную блокчейн-платформу «Конфидент»Новая разработка представляет собой готовую инфраструктуру для информационных блокчейн-систем — от слоя для работы нод сети до уровня приложений, где выполняются автоматизированные бизнес-процессы</t>
-  </si>
-  <si>
-    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
-  </si>
-  <si>
-    <t>Гол Бабича на 91‑й минуте принес «Спартаку» победу над «Сочи» в матче РПЛ</t>
+    <t>Первая ночная неконференция от Слёрма «IT-голики» — для всех, кто в айти</t>
+  </si>
+  <si>
+    <t>«Спартак» при необходимости поможет Промесу в получении паспорта РФ</t>
   </si>
 </sst>
 </file>
@@ -173,20 +269,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542544</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234696</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="pie2.jpeg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="pie1.jpeg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -199,8 +295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7362825" y="4000500"/>
-          <a:ext cx="4809744" cy="3758184"/>
+          <a:off x="10020300" y="190500"/>
+          <a:ext cx="5111496" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -211,20 +307,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>515112</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="pie1.jpeg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="pie2.jpeg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -237,8 +333,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7362825" y="190500"/>
-          <a:ext cx="4782312" cy="3758184"/>
+          <a:off x="10020300" y="4572000"/>
+          <a:ext cx="5097780" cy="3758184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>460248</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>138684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="pie3.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="8953500"/>
+          <a:ext cx="4727448" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -535,16 +669,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
+    <col min="2" max="5" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,13 +688,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -568,55 +705,67 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -624,41 +773,50 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -666,48 +824,366 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D17">
         <v>2</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -717,21 +1193,197 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -739,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -750,18 +1402,18 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -769,15 +1421,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -785,34 +1438,35 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2222312</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -820,10 +1474,415 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2222312</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -831,82 +1890,32 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>321</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -916,69 +1925,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -986,10 +1948,96 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2212</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -997,29 +2045,18 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C1"/>
   <sheetViews>
@@ -1027,39 +2064,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="5" width="300.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/api/INPUT_/answer.xlsx
+++ b/server/src/api/INPUT_/answer.xlsx
@@ -153,25 +153,25 @@
     <t>В России запустили отечественную блокчейн-платформу «Конфидент» В России запустили полностью отечественную блокчейн-платформу «Конфидент»Новая разработка представляет собой готовую инфраструктуру для информационных блокчейн-систем — от слоя для работы нод сети до уровня приложений, где выполняются автоматизированные бизнес-процессы</t>
   </si>
   <si>
+    <t>Новости шоу-бизнеса. Оправдания Галкина, Меладзе и Лорак не дают вернуться и другие</t>
+  </si>
+  <si>
+    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
+  </si>
+  <si>
     <t>Как одеться в стиле old money: берем пример с «Наследников» и «Короны»</t>
   </si>
   <si>
-    <t>Новости шоу-бизнеса. Оправдания Галкина, Меладзе и Лорак не дают вернуться и другие</t>
-  </si>
-  <si>
-    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
-  </si>
-  <si>
     <t>Новости шоу-бизнеса. Павел Прилучный устроил разборку в центре Москвы, на шоу "Ледниковый период" снова замены и другие</t>
   </si>
   <si>
     <t>Первая в мире GeForce RTX 4070, к которой не нужно подключать никаких кабелей питания. Представлена Asus GeForce RTX 4070 Gaming BTF</t>
   </si>
   <si>
+    <t>Швейцария обогнала США по уровню принятия криптовалютm. Лидирующую позицию в рейтинге стран по готовности к внедрению цифровых активов второй год подряд занимает Гонконг</t>
+  </si>
+  <si>
     <t>Презентация Apple, Google врывается в чужой суд, Xiaomi и Huawei договариваются о сотрудничестве: дайджест недели</t>
-  </si>
-  <si>
-    <t>Швейцария обогнала США по уровню принятия криптовалютm. Лидирующую позицию в рейтинге стран по готовности к внедрению цифровых активов второй год подряд занимает Гонконг</t>
   </si>
   <si>
     <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1901,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>

--- a/server/src/api/INPUT_/answer.xlsx
+++ b/server/src/api/INPUT_/answer.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
   <si>
     <t>Название категории</t>
   </si>
@@ -150,49 +150,421 @@
     <t>Сообщения без дубликтов</t>
   </si>
   <si>
-    <t>В России запустили отечественную блокчейн-платформу «Конфидент» В России запустили полностью отечественную блокчейн-платформу «Конфидент»Новая разработка представляет собой готовую инфраструктуру для информационных блокчейн-систем — от слоя для работы нод сети до уровня приложений, где выполняются автоматизированные бизнес-процессы</t>
-  </si>
-  <si>
-    <t>Новости шоу-бизнеса. Оправдания Галкина, Меладзе и Лорак не дают вернуться и другие</t>
-  </si>
-  <si>
-    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
-  </si>
-  <si>
-    <t>Как одеться в стиле old money: берем пример с «Наследников» и «Короны»</t>
-  </si>
-  <si>
-    <t>Новости шоу-бизнеса. Павел Прилучный устроил разборку в центре Москвы, на шоу "Ледниковый период" снова замены и другие</t>
-  </si>
-  <si>
-    <t>Первая в мире GeForce RTX 4070, к которой не нужно подключать никаких кабелей питания. Представлена Asus GeForce RTX 4070 Gaming BTF</t>
-  </si>
-  <si>
-    <t>Швейцария обогнала США по уровню принятия криптовалютm. Лидирующую позицию в рейтинге стран по готовности к внедрению цифровых активов второй год подряд занимает Гонконг</t>
-  </si>
-  <si>
-    <t>Презентация Apple, Google врывается в чужой суд, Xiaomi и Huawei договариваются о сотрудничестве: дайджест недели</t>
-  </si>
-  <si>
-    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
-  </si>
-  <si>
-    <t>Гол Бабича на 91‑й минуте принес «Спартаку» победу над «Сочи» в матче РПЛ</t>
-  </si>
-  <si>
-    <t>Звезда турецкого шоу-бизнеса Демет Оздемир вновь оказалась в центре скандала. Недавно появились сообщения о том, что актриса приобрела дом в Афинах и обрела вторую половинку в лице греческого диджея Серджио.</t>
-  </si>
-  <si>
-    <t>Глава СНБО Данилов перечислил меры помощи Украины для партнеров</t>
-  </si>
-  <si>
-    <t>Польша проведет учения с использованием новых танков K2 у границы с Россией</t>
-  </si>
-  <si>
-    <t>Первая ночная неконференция от Слёрма «IT-голики» — для всех, кто в айти</t>
-  </si>
-  <si>
-    <t>«Спартак» при необходимости поможет Промесу в получении паспорта РФ</t>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
+    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
+  </si>
+  <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
+    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+  </si>
+  <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+  </si>
+  <si>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+  </si>
+  <si>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
+  </si>
+  <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
+  </si>
+  <si>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
+  </si>
+  <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
+  </si>
+  <si>
+    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
+  </si>
+  <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+  </si>
+  <si>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+  </si>
+  <si>
+    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
+  </si>
+  <si>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+  </si>
+  <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+  </si>
+  <si>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
+    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
+  </si>
+  <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
+  </si>
+  <si>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+  </si>
+  <si>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
+  </si>
+  <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
+    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
+  </si>
+  <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+  </si>
+  <si>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
   </si>
 </sst>
 </file>
@@ -275,8 +647,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>234696</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>530352</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -296,7 +668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="190500"/>
-          <a:ext cx="5111496" cy="3758184"/>
+          <a:ext cx="6016752" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -313,8 +685,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>539496</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -334,7 +706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="4572000"/>
-          <a:ext cx="5097780" cy="3758184"/>
+          <a:ext cx="6025896" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -351,8 +723,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>460248</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>214884</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -372,7 +744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="8953500"/>
-          <a:ext cx="4727448" cy="3758184"/>
+          <a:ext cx="3872484" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,10 +1072,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -717,10 +1089,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -734,13 +1106,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -751,10 +1123,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,10 +1140,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,10 +1157,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,10 +1174,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -819,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -836,10 +1208,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -853,10 +1225,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -870,10 +1242,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -887,10 +1259,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -904,10 +1276,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -921,10 +1293,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -938,10 +1310,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -955,10 +1327,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -972,10 +1344,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -989,10 +1361,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1006,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1023,10 +1395,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1040,10 +1412,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1057,10 +1429,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1074,10 +1446,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1091,10 +1463,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1108,10 +1480,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1142,10 +1514,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1159,13 +1531,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1192,181 +1564,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1391,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1402,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1413,9 +1610,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1438,10 +1635,32 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
+      <c r="B3">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1449,9 +1668,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1474,10 +1693,32 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1485,59 +1726,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1560,10 +1751,54 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1571,59 +1806,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1646,10 +1831,87 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1657,9 +1919,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1669,12 +1931,78 @@
     <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1682,9 +2010,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1694,12 +2022,1002 @@
     <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +3052,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1757,10 +3075,76 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1770,32 +3154,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1818,10 +3177,277 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2222312</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1856,6 +3482,191 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1879,10 +3690,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1890,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1901,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1912,10 +3723,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1923,43 +3734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2212</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C1"/>
   <sheetViews>
@@ -1984,34 +3759,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2034,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2045,35 +3795,21 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/api/INPUT_/answer.xlsx
+++ b/server/src/api/INPUT_/answer.xlsx
@@ -51,10 +51,10 @@
     <t>Общее количество</t>
   </si>
   <si>
-    <t>Количество без дубликтов</t>
-  </si>
-  <si>
-    <t>Количество дубликтов</t>
+    <t>Количество без дубликатов</t>
+  </si>
+  <si>
+    <t>Количество дубликатов</t>
   </si>
   <si>
     <t>Блоги</t>
@@ -147,12 +147,18 @@
     <t>ID канала</t>
   </si>
   <si>
-    <t>Сообщения без дубликтов</t>
+    <t>Сообщения без дубликатов</t>
+  </si>
+  <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
   </si>
   <si>
     <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
   </si>
   <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
     <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
   </si>
   <si>
@@ -162,10 +168,10 @@
     <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
   </si>
   <si>
-    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
-  </si>
-  <si>
-    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
   </si>
   <si>
     <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
@@ -180,15 +186,9 @@
     <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
   </si>
   <si>
-    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
-  </si>
-  <si>
     <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
   </si>
   <si>
-    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
-  </si>
-  <si>
     <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
   </si>
   <si>
@@ -201,27 +201,27 @@
     <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
   </si>
   <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
     <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
   </si>
   <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
     <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
   </si>
   <si>
-    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
-  </si>
-  <si>
-    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
-  </si>
-  <si>
-    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
-  </si>
-  <si>
     <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
   </si>
   <si>
@@ -234,30 +234,30 @@
     <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
   </si>
   <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
     <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
   </si>
   <si>
     <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
   </si>
   <si>
-    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
-  </si>
-  <si>
     <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
   </si>
   <si>
     <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
   </si>
   <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
     <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
   </si>
   <si>
-    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
-  </si>
-  <si>
-    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
-  </si>
-  <si>
     <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
   </si>
   <si>
@@ -270,301 +270,301 @@
     <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
   </si>
   <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
     <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
   </si>
   <si>
     <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
   </si>
   <si>
-    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
-  </si>
-  <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
   </si>
   <si>
     <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
   </si>
   <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
     <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
   </si>
   <si>
-    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
-  </si>
-  <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
-  </si>
-  <si>
-    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
-  </si>
-  <si>
-    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
   </si>
   <si>
     <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
   </si>
   <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
-  </si>
-  <si>
-    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
-  </si>
-  <si>
-    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
     <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
   </si>
   <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
     <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
   </si>
   <si>
-    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
-  </si>
-  <si>
-    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
-  </si>
-  <si>
     <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
   </si>
   <si>
     <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
   </si>
   <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
     <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
   </si>
   <si>
     <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
   </si>
   <si>
-    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
-  </si>
-  <si>
-    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
   </si>
   <si>
     <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
   </si>
   <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
-  </si>
-  <si>
-    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
   </si>
   <si>
     <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
   </si>
   <si>
-    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
-  </si>
-  <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
-  </si>
-  <si>
-    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
-  </si>
-  <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
   </si>
   <si>
     <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
   </si>
   <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
     <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
   </si>
   <si>
-    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
-  </si>
-  <si>
-    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
   </si>
   <si>
     <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
   </si>
   <si>
-    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
   </si>
   <si>
     <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
   </si>
   <si>
-    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
-  </si>
-  <si>
-    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
-  </si>
-  <si>
-    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
-  </si>
-  <si>
     <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
   </si>
   <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
     <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
   </si>
   <si>
-    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
-  </si>
-  <si>
     <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
   </si>
   <si>
+    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
+  </si>
+  <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
     <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
   </si>
   <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
-  </si>
-  <si>
-    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
-  </si>
-  <si>
-    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
-  </si>
-  <si>
-    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
   </si>
   <si>
     <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
   </si>
   <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
   </si>
   <si>
     <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
   </si>
   <si>
-    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
-  </si>
-  <si>
-    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
-  </si>
-  <si>
-    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
-  </si>
-  <si>
-    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
   </si>
   <si>
     <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
   </si>
   <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
+  </si>
+  <si>
     <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
   </si>
   <si>
-    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
-  </si>
-  <si>
-    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
-  </si>
-  <si>
-    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
-  </si>
-  <si>
-    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
-  </si>
-  <si>
     <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
   </si>
   <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
     <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
   </si>
   <si>
-    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
   </si>
   <si>
     <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
   </si>
   <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
     <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
   </si>
   <si>
     <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
   </si>
   <si>
-    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
   </si>
   <si>
     <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
   </si>
   <si>
-    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
-  </si>
-  <si>
-    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
-  </si>
-  <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
     <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
   </si>
   <si>
-    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
-  </si>
-  <si>
-    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
   </si>
   <si>
     <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
   </si>
   <si>
-    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
-  </si>
-  <si>
-    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
   </si>
   <si>
     <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
   </si>
   <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
-    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
   </si>
   <si>
     <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
-  </si>
-  <si>
-    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
-  </si>
-  <si>
-    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
-  </si>
-  <si>
-    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -1657,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -1784,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -1795,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -1853,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -1864,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
@@ -1977,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
@@ -1988,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
@@ -1999,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>92</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>94</v>
@@ -2057,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
@@ -2068,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -2148,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -2159,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>104</v>
@@ -2217,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
@@ -2228,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>106</v>
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
@@ -2261,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
@@ -2272,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -2283,7 +2283,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -2352,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -2421,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -2443,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
@@ -2512,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
@@ -2523,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -2534,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>126</v>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
@@ -2672,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>129</v>
@@ -2683,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>130</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -2752,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>134</v>
@@ -2763,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>135</v>
@@ -2774,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
         <v>136</v>
@@ -2785,7 +2785,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>137</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>138</v>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>139</v>
@@ -2843,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>140</v>
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>141</v>
@@ -2865,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>142</v>
@@ -2876,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
         <v>143</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
         <v>145</v>
@@ -2934,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>146</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
         <v>147</v>
@@ -2992,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>149</v>
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
         <v>150</v>
@@ -3014,7 +3014,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>151</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>152</v>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>153</v>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>154</v>
@@ -3108,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>155</v>
@@ -3119,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>156</v>
@@ -3130,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>157</v>
@@ -3141,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>158</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>159</v>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>160</v>
@@ -3199,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
@@ -3210,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>162</v>
@@ -3221,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>163</v>
@@ -3232,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>164</v>
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -3254,7 +3254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
         <v>166</v>
@@ -3265,7 +3265,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>167</v>
@@ -3276,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>168</v>
@@ -3287,7 +3287,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>169</v>
@@ -3298,7 +3298,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>170</v>
@@ -3309,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>171</v>
@@ -3320,7 +3320,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -3331,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>173</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -3389,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -3411,7 +3411,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -3422,7 +3422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -3433,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -3599,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -3610,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -3621,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -3632,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -3643,7 +3643,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -3654,7 +3654,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>

--- a/server/src/api/INPUT_/answer.xlsx
+++ b/server/src/api/INPUT_/answer.xlsx
@@ -150,88 +150,91 @@
     <t>Сообщения без дубликатов</t>
   </si>
   <si>
+    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+  </si>
+  <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
     <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
   </si>
   <si>
+    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
     <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
   </si>
   <si>
-    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
-  </si>
-  <si>
-    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
-  </si>
-  <si>
-    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
-  </si>
-  <si>
-    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
   </si>
   <si>
     <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
   </si>
   <si>
-    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
-  </si>
-  <si>
-    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
   </si>
   <si>
     <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
   </si>
   <si>
-    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
-  </si>
-  <si>
-    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
-  </si>
-  <si>
     <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
   </si>
   <si>
-    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
   </si>
   <si>
     <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
   </si>
   <si>
-    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
-  </si>
-  <si>
-    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
   </si>
   <si>
     <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
   </si>
   <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
-    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
-  </si>
-  <si>
-    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
-  </si>
-  <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
-  </si>
-  <si>
-    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
   </si>
   <si>
     <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
   </si>
   <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
     <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
   </si>
   <si>
-    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
-  </si>
-  <si>
-    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
   </si>
   <si>
     <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
@@ -240,55 +243,58 @@
     <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
   </si>
   <si>
-    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
-  </si>
-  <si>
     <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
   </si>
   <si>
     <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
   </si>
   <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
     <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
   </si>
   <si>
     <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
   </si>
   <si>
-    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
   </si>
   <si>
     <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
   </si>
   <si>
-    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
-  </si>
-  <si>
-    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
-  </si>
-  <si>
     <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
   </si>
   <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
     <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
   </si>
   <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
-  </si>
-  <si>
-    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
-  </si>
-  <si>
-    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
   </si>
   <si>
     <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
   </si>
   <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
-  </si>
-  <si>
-    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
   </si>
   <si>
     <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
@@ -300,85 +306,82 @@
     <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
   </si>
   <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
   </si>
   <si>
     <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
   </si>
   <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
     <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
   </si>
   <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
-    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
   </si>
   <si>
     <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
   </si>
   <si>
-    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
   </si>
   <si>
     <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
   </si>
   <si>
-    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
-  </si>
-  <si>
-    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
-  </si>
-  <si>
-    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
   </si>
   <si>
     <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
   </si>
   <si>
-    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
-  </si>
-  <si>
-    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
-  </si>
-  <si>
-    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
   </si>
   <si>
     <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
   </si>
   <si>
-    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
-  </si>
-  <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
-  </si>
-  <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
   </si>
   <si>
     <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
   </si>
   <si>
-    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
-  </si>
-  <si>
     <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
   </si>
   <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
   </si>
   <si>
     <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
@@ -390,87 +393,84 @@
     <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
   </si>
   <si>
-    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
   </si>
   <si>
     <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
   </si>
   <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
     <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
   </si>
   <si>
-    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
-  </si>
-  <si>
-    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
-  </si>
-  <si>
-    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
-  </si>
-  <si>
     <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
   </si>
   <si>
     <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
   </si>
   <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
     <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
   </si>
   <si>
-    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
-  </si>
-  <si>
-    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
   </si>
   <si>
     <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
   </si>
   <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
     <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
   </si>
   <si>
-    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
-  </si>
-  <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
-  </si>
-  <si>
-    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
   </si>
   <si>
     <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
   </si>
   <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
-  </si>
-  <si>
-    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
-  </si>
-  <si>
-    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
-  </si>
-  <si>
-    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
-  </si>
-  <si>
-    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
-  </si>
-  <si>
     <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
   </si>
   <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
     <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
   </si>
   <si>
     <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
   </si>
   <si>
-    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
-  </si>
-  <si>
-    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
-  </si>
-  <si>
     <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
   </si>
   <si>
@@ -480,25 +480,37 @@
     <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
   </si>
   <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
     <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
   </si>
   <si>
-    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
   </si>
   <si>
     <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
   </si>
   <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
-    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
-  </si>
-  <si>
-    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
-  </si>
-  <si>
-    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
   </si>
   <si>
     <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
@@ -507,61 +519,49 @@
     <t>Главные новости дня: важные политические решения и международные соглашения.</t>
   </si>
   <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
-    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
-  </si>
-  <si>
-    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
-  </si>
-  <si>
     <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
   </si>
   <si>
-    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
   </si>
   <si>
     <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
   </si>
   <si>
-    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
   </si>
   <si>
     <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
   </si>
   <si>
-    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
-  </si>
-  <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
     <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
   </si>
   <si>
-    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
-  </si>
-  <si>
     <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
-  </si>
-  <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
   </si>
   <si>
     <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
@@ -1657,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -1784,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -1795,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -1853,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -1864,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>87</v>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -1977,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
@@ -1999,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>92</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>94</v>
@@ -2057,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
@@ -2068,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
@@ -2079,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -2159,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
@@ -2261,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
@@ -2272,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -2283,7 +2283,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -2352,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -2443,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
@@ -2512,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
@@ -2523,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>126</v>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
@@ -2683,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>130</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>133</v>
@@ -2752,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>134</v>
@@ -2774,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>136</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>138</v>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>139</v>
@@ -2843,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>140</v>
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>141</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>145</v>
@@ -2934,7 +2934,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>146</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>147</v>
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>150</v>
@@ -3014,7 +3014,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>151</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>152</v>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>153</v>
@@ -3108,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>155</v>
@@ -3119,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>156</v>
@@ -3130,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>157</v>
@@ -3141,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>158</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>159</v>
@@ -3199,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
@@ -3210,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
         <v>162</v>
@@ -3221,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>163</v>
@@ -3232,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>164</v>
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -3254,7 +3254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
         <v>166</v>
@@ -3265,7 +3265,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>167</v>
@@ -3276,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>168</v>
@@ -3287,7 +3287,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>169</v>
@@ -3298,7 +3298,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
         <v>170</v>
@@ -3309,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>171</v>
@@ -3320,7 +3320,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -3389,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -3411,7 +3411,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -3422,7 +3422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -3433,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -3444,7 +3444,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -3552,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -3599,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -3610,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -3621,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -3643,7 +3643,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -3654,7 +3654,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -3723,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>

--- a/server/src/api/INPUT_/answer.xlsx
+++ b/server/src/api/INPUT_/answer.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="175">
   <si>
     <t>Название категории</t>
   </si>
@@ -150,421 +150,424 @@
     <t>Сообщения без дубликатов</t>
   </si>
   <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+  </si>
+  <si>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
     <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
   </si>
   <si>
-    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
-  </si>
-  <si>
-    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
+  </si>
+  <si>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
+  </si>
+  <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+  </si>
+  <si>
+    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
+  </si>
+  <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
+    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
+  </si>
+  <si>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+  </si>
+  <si>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
+  </si>
+  <si>
+    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
   </si>
   <si>
     <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
   </si>
   <si>
-    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
-  </si>
-  <si>
-    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
-  </si>
-  <si>
-    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
-  </si>
-  <si>
-    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+  </si>
+  <si>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
+  </si>
+  <si>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
+    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
   </si>
   <si>
     <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
   </si>
   <si>
-    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
-  </si>
-  <si>
-    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
-  </si>
-  <si>
-    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
-  </si>
-  <si>
-    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
-  </si>
-  <si>
-    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
-  </si>
-  <si>
-    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
-  </si>
-  <si>
-    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
-  </si>
-  <si>
-    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
-  </si>
-  <si>
-    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
+    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+  </si>
+  <si>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
+  </si>
+  <si>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
+  </si>
+  <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
   </si>
   <si>
     <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
   </si>
   <si>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
     <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
   </si>
   <si>
-    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
-  </si>
-  <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
-    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
-  </si>
-  <si>
-    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
-  </si>
-  <si>
-    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
-  </si>
-  <si>
-    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
-  </si>
-  <si>
-    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
-  </si>
-  <si>
-    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
-  </si>
-  <si>
-    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
-  </si>
-  <si>
-    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
-  </si>
-  <si>
-    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
-  </si>
-  <si>
-    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
-  </si>
-  <si>
-    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
-  </si>
-  <si>
-    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
-  </si>
-  <si>
-    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
-  </si>
-  <si>
-    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
-  </si>
-  <si>
-    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
-  </si>
-  <si>
-    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
-  </si>
-  <si>
-    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
-  </si>
-  <si>
-    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
-  </si>
-  <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
-  </si>
-  <si>
-    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
-  </si>
-  <si>
-    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
-  </si>
-  <si>
-    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
   </si>
   <si>
     <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
   </si>
   <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
-  </si>
-  <si>
-    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
-  </si>
-  <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
-  </si>
-  <si>
-    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
-  </si>
-  <si>
-    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
-  </si>
-  <si>
-    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
-  </si>
-  <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
-    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
-  </si>
-  <si>
-    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
-  </si>
-  <si>
-    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
-  </si>
-  <si>
-    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
-  </si>
-  <si>
-    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
-  </si>
-  <si>
-    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
-  </si>
-  <si>
-    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
-  </si>
-  <si>
-    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
-  </si>
-  <si>
-    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
-  </si>
-  <si>
-    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
-  </si>
-  <si>
-    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
-  </si>
-  <si>
-    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
-  </si>
-  <si>
-    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
-  </si>
-  <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
-  </si>
-  <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
-  </si>
-  <si>
-    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
-  </si>
-  <si>
-    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
-  </si>
-  <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
-  </si>
-  <si>
-    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
-  </si>
-  <si>
-    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
-  </si>
-  <si>
-    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
-  </si>
-  <si>
-    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
-  </si>
-  <si>
-    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
-  </si>
-  <si>
-    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
-  </si>
-  <si>
-    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
-  </si>
-  <si>
-    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
-  </si>
-  <si>
-    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
-  </si>
-  <si>
-    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
-  </si>
-  <si>
-    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
-  </si>
-  <si>
-    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
-  </si>
-  <si>
-    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
-  </si>
-  <si>
-    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
-  </si>
-  <si>
-    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
-  </si>
-  <si>
-    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
-  </si>
-  <si>
-    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
-  </si>
-  <si>
-    <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
-  </si>
-  <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
-  </si>
-  <si>
-    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
-  </si>
-  <si>
-    <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
-  </si>
-  <si>
-    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
-  </si>
-  <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
-  </si>
-  <si>
-    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
-  </si>
-  <si>
-    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
-  </si>
-  <si>
-    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
-  </si>
-  <si>
-    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
-  </si>
-  <si>
-    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
-  </si>
-  <si>
-    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
-  </si>
-  <si>
-    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
-  </si>
-  <si>
-    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
-  </si>
-  <si>
-    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
-  </si>
-  <si>
-    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
-  </si>
-  <si>
-    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
-  </si>
-  <si>
-    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
-  </si>
-  <si>
-    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
-  </si>
-  <si>
-    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
-  </si>
-  <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
-    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
-  </si>
-  <si>
-    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
-  </si>
-  <si>
-    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
-  </si>
-  <si>
-    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
-  </si>
-  <si>
-    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
-  </si>
-  <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
-    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
-  </si>
-  <si>
-    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
-  </si>
-  <si>
-    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
-  </si>
-  <si>
-    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
-  </si>
-  <si>
-    <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
-  </si>
-  <si>
-    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях.</t>
   </si>
   <si>
     <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
   </si>
   <si>
     <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
-  </si>
-  <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
-  </si>
-  <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
-  </si>
-  <si>
-    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
-  </si>
-  <si>
-    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
   </si>
 </sst>
 </file>
@@ -647,8 +650,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>530352</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>391668</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -668,7 +671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="190500"/>
-          <a:ext cx="6016752" cy="3758184"/>
+          <a:ext cx="6487668" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -685,8 +688,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>539496</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>391668</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -706,7 +709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="4572000"/>
-          <a:ext cx="6025896" cy="3758184"/>
+          <a:ext cx="6487668" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -723,8 +726,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>214884</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513588</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -744,7 +747,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="8953500"/>
-          <a:ext cx="3872484" cy="3758184"/>
+          <a:ext cx="3561588" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1089,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1106,10 +1109,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1123,10 +1126,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1140,10 +1143,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1157,10 +1160,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1191,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1208,10 +1211,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1242,10 +1245,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1259,10 +1262,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1293,10 +1296,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,10 +1313,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,10 +1330,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,10 +1347,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1361,10 +1364,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1378,10 +1381,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1395,10 +1398,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1412,10 +1415,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1429,10 +1432,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1446,10 +1449,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1463,10 +1466,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1497,10 +1500,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1531,13 +1534,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1565,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1594,7 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1599,10 +1602,21 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>67</v>
+      <c r="C4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1638,7 +1652,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1649,7 +1663,7 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1660,7 +1674,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1693,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1704,21 +1718,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1731,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1751,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1762,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1773,10 +1776,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1784,10 +1787,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1795,10 +1798,87 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1914,7 @@
         <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1842,10 +1922,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1853,10 +1933,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1864,10 +1944,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1875,10 +1955,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1886,10 +1966,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1900,7 +1980,7 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1908,10 +1988,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1920,6 +2000,144 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1944,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1955,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1966,10 +2184,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1977,10 +2195,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1988,10 +2206,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1999,10 +2217,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2010,9 +2228,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2046,10 +2264,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2057,10 +2275,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2068,10 +2286,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2079,10 +2297,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2090,10 +2308,54 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2101,9 +2363,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2126,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2137,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2148,10 +2410,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2159,79 +2421,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2239,123 +2432,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -2399,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -2410,7 +2490,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -2421,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -2432,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -2443,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -2456,7 +2536,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2479,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2490,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2501,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2515,7 +2595,7 @@
         <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2523,21 +2603,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2546,6 +2615,64 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2570,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2581,10 +2708,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2592,10 +2719,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2603,10 +2730,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2614,7 +2741,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2639,10 +2835,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2650,10 +2846,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2661,10 +2857,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2672,10 +2868,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2683,10 +2879,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2694,9 +2890,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2719,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2730,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2741,10 +2937,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2752,10 +2948,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2763,181 +2959,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>109</v>
-      </c>
-      <c r="C8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2970,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2981,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2992,10 +3017,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3006,7 +3031,7 @@
         <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3017,7 +3042,7 @@
         <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3027,7 +3052,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3037,12 +3062,23 @@
     <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3075,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3086,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3097,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3108,10 +3144,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3122,7 +3158,7 @@
         <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3130,10 +3166,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3141,10 +3177,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3190,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3180,7 +3216,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3188,10 +3224,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3199,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3210,10 +3246,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3221,10 +3257,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3232,10 +3268,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3243,10 +3279,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3254,10 +3290,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3265,10 +3301,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3276,10 +3312,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3287,54 +3323,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>139</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3344,7 +3336,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3367,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -3378,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -3389,65 +3381,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3482,32 +3419,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3530,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3541,21 +3453,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3563,9 +3464,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3588,76 +3489,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3665,9 +3500,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3690,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3701,10 +3536,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3712,10 +3547,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3723,9 +3558,166 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3761,7 +3753,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3784,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -3795,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -3806,10 +3798,32 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/api/INPUT_/answer.xlsx
+++ b/server/src/api/INPUT_/answer.xlsx
@@ -150,12 +150,15 @@
     <t>Сообщения без дубликатов</t>
   </si>
   <si>
+    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
+  </si>
+  <si>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
     <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
   </si>
   <si>
-    <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
-  </si>
-  <si>
     <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
   </si>
   <si>
@@ -165,7 +168,22 @@
     <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
   </si>
   <si>
-    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
   </si>
   <si>
     <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
@@ -174,81 +192,63 @@
     <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
   </si>
   <si>
-    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
-  </si>
-  <si>
-    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
-  </si>
-  <si>
-    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
-  </si>
-  <si>
-    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
-  </si>
-  <si>
-    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
-  </si>
-  <si>
-    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
   </si>
   <si>
     <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
   </si>
   <si>
-    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
-  </si>
-  <si>
-    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
   </si>
   <si>
     <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
   </si>
   <si>
-    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
-  </si>
-  <si>
-    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
-  </si>
-  <si>
-    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
-  </si>
-  <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
-    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
   </si>
   <si>
     <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
   </si>
   <si>
-    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
-  </si>
-  <si>
-    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
-  </si>
-  <si>
-    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
   </si>
   <si>
     <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
   </si>
   <si>
-    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
-  </si>
-  <si>
-    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
   </si>
   <si>
     <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
   </si>
   <si>
-    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
-  </si>
-  <si>
     <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
   </si>
   <si>
@@ -258,13 +258,16 @@
     <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
   </si>
   <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
     <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
   </si>
   <si>
     <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
   </si>
   <si>
-    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
   </si>
   <si>
     <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
@@ -273,142 +276,142 @@
     <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
   </si>
   <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
-  </si>
-  <si>
     <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
   </si>
   <si>
     <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
   </si>
   <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
     <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
   </si>
   <si>
     <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
   </si>
   <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
-  </si>
-  <si>
-    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
-  </si>
-  <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
-  </si>
-  <si>
-    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
-  </si>
-  <si>
     <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
   </si>
   <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
     <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
   </si>
   <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
     <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
   </si>
   <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
     <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
   </si>
   <si>
-    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
-  </si>
-  <si>
     <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
   </si>
   <si>
-    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
-  </si>
-  <si>
-    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
-  </si>
-  <si>
-    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
   </si>
   <si>
     <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
   </si>
   <si>
-    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
-  </si>
-  <si>
-    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
-  </si>
-  <si>
-    <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
-  </si>
-  <si>
     <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
   </si>
   <si>
+    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
     <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
   </si>
   <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
-  </si>
-  <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
-  </si>
-  <si>
-    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
-  </si>
-  <si>
-    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
-  </si>
-  <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
-  </si>
-  <si>
-    <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
   </si>
   <si>
     <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
   </si>
   <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
     <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
   </si>
   <si>
-    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
-  </si>
-  <si>
-    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
   </si>
   <si>
     <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
   </si>
   <si>
-    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
-  </si>
-  <si>
     <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
   </si>
   <si>
     <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
   </si>
   <si>
-    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
-  </si>
-  <si>
-    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
   </si>
   <si>
     <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
@@ -420,7 +423,7 @@
     <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
   </si>
   <si>
-    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
   </si>
   <si>
     <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
@@ -429,24 +432,24 @@
     <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
   </si>
   <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
     <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
   </si>
   <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
-  </si>
-  <si>
-    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
   </si>
   <si>
     <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
   </si>
   <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
     <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
   </si>
   <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
-  </si>
-  <si>
     <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
   </si>
   <si>
@@ -456,115 +459,112 @@
     <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
   </si>
   <si>
-    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
-  </si>
-  <si>
     <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
   </si>
   <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
     <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
   </si>
   <si>
     <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
   </si>
   <si>
-    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
   </si>
   <si>
     <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
   </si>
   <si>
-    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
   </si>
   <si>
     <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
   </si>
   <si>
-    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
-  </si>
-  <si>
     <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
   </si>
   <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
     <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
   </si>
   <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
-    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
-  </si>
-  <si>
-    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
-  </si>
-  <si>
     <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
   </si>
   <si>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
     <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
   </si>
   <si>
     <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
   </si>
   <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
-    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
-  </si>
-  <si>
-    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
-  </si>
-  <si>
-    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
-  </si>
-  <si>
-    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
   </si>
   <si>
     <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
   </si>
   <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
+  </si>
+  <si>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
     <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
   </si>
   <si>
-    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
-  </si>
-  <si>
-    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
-  </si>
-  <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
-  </si>
-  <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
   </si>
   <si>
     <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
-  </si>
-  <si>
-    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -1773,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
@@ -1853,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -1864,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -1875,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -1886,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -1897,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -1977,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
@@ -1988,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>94</v>
@@ -2057,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
@@ -2068,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
@@ -2079,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
@@ -2137,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -2148,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -2159,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>104</v>
@@ -2217,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>105</v>
@@ -2228,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>106</v>
@@ -2239,7 +2239,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
@@ -2261,7 +2261,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
@@ -2272,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -2283,7 +2283,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>112</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -2352,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>115</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -2421,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -2443,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
@@ -2512,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
@@ -2523,7 +2523,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -2534,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>121</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>122</v>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>126</v>
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>127</v>
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>128</v>
@@ -2672,7 +2672,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>129</v>
@@ -2683,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>130</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
@@ -2752,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>134</v>
@@ -2763,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
         <v>135</v>
@@ -2774,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>136</v>
@@ -2785,7 +2785,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>137</v>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>139</v>
@@ -2843,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>140</v>
@@ -2854,7 +2854,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>141</v>
@@ -2865,7 +2865,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
         <v>142</v>
@@ -2876,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>143</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>144</v>
@@ -2923,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>145</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>147</v>
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>148</v>
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
         <v>150</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>152</v>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>153</v>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>154</v>
@@ -3119,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>156</v>
@@ -3130,7 +3130,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>157</v>
@@ -3141,7 +3141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>158</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>159</v>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>160</v>
@@ -3199,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
@@ -3210,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>162</v>
@@ -3221,7 +3221,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>163</v>
@@ -3232,7 +3232,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>164</v>
@@ -3243,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -3254,7 +3254,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>166</v>
@@ -3265,7 +3265,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>167</v>
@@ -3276,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>168</v>
@@ -3287,7 +3287,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>169</v>
@@ -3298,7 +3298,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>170</v>
@@ -3309,7 +3309,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>171</v>
@@ -3320,7 +3320,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -3331,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
         <v>173</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
@@ -3389,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -3411,7 +3411,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -3422,7 +3422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
@@ -3433,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -3444,7 +3444,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -3552,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
@@ -3599,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -3610,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -3621,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -3643,7 +3643,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -3654,7 +3654,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>59</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -3723,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
@@ -3806,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>

--- a/server/src/api/INPUT_/answer.xlsx
+++ b/server/src/api/INPUT_/answer.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
   <si>
     <t>Название категории</t>
   </si>
@@ -150,424 +150,421 @@
     <t>Сообщения без дубликатов</t>
   </si>
   <si>
+    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
+  </si>
+  <si>
+    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
+  </si>
+  <si>
+    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
+  </si>
+  <si>
+    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
+  </si>
+  <si>
+    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
+  </si>
+  <si>
+    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
+  </si>
+  <si>
+    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
+  </si>
+  <si>
+    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
+  </si>
+  <si>
+    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
+  </si>
+  <si>
+    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
+  </si>
+  <si>
+    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
+  </si>
+  <si>
+    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
+  </si>
+  <si>
+    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
+  </si>
+  <si>
+    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
+  </si>
+  <si>
+    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
+  </si>
+  <si>
+    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
+  </si>
+  <si>
+    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
+  </si>
+  <si>
+    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
+  </si>
+  <si>
+    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
+  </si>
+  <si>
+    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
+  </si>
+  <si>
+    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
+  </si>
+  <si>
+    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
+  </si>
+  <si>
+    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
+  </si>
+  <si>
+    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
+  </si>
+  <si>
+    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
+  </si>
+  <si>
+    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
+  </si>
+  <si>
+    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
+  </si>
+  <si>
+    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
+  </si>
+  <si>
+    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
+  </si>
+  <si>
+    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
+  </si>
+  <si>
+    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
+  </si>
+  <si>
+    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
+  </si>
+  <si>
+    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
+  </si>
+  <si>
+    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
+  </si>
+  <si>
+    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+  </si>
+  <si>
+    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
+  </si>
+  <si>
+    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
+  </si>
+  <si>
+    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
+  </si>
+  <si>
+    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
+  </si>
+  <si>
+    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
+  </si>
+  <si>
+    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
+  </si>
+  <si>
+    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
+  </si>
+  <si>
+    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
+  </si>
+  <si>
+    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
+  </si>
+  <si>
+    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
+  </si>
+  <si>
+    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
+  </si>
+  <si>
+    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
+  </si>
+  <si>
+    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
+  </si>
+  <si>
+    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
+  </si>
+  <si>
+    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
+  </si>
+  <si>
+    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
+  </si>
+  <si>
+    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
+  </si>
+  <si>
+    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
+  </si>
+  <si>
+    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
+  </si>
+  <si>
+    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
+  </si>
+  <si>
+    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
+  </si>
+  <si>
+    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
+  </si>
+  <si>
+    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
+  </si>
+  <si>
+    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
+  </si>
+  <si>
+    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
+  </si>
+  <si>
+    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
+  </si>
+  <si>
+    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
+  </si>
+  <si>
+    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
+  </si>
+  <si>
+    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
+  </si>
+  <si>
+    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
+  </si>
+  <si>
+    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
+  </si>
+  <si>
+    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
+  </si>
+  <si>
+    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
+  </si>
+  <si>
+    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
+  </si>
+  <si>
+    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
+  </si>
+  <si>
+    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
+  </si>
+  <si>
+    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
+  </si>
+  <si>
+    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
+  </si>
+  <si>
+    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
+  </si>
+  <si>
+    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
+  </si>
+  <si>
+    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
+  </si>
+  <si>
+    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
+  </si>
+  <si>
+    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
+  </si>
+  <si>
+    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
+  </si>
+  <si>
+    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+  </si>
+  <si>
+    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
+  </si>
+  <si>
+    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
+  </si>
+  <si>
+    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
+  </si>
+  <si>
+    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
+  </si>
+  <si>
+    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
+  </si>
+  <si>
+    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
+  </si>
+  <si>
+    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
+  </si>
+  <si>
+    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
+  </si>
+  <si>
+    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+  </si>
+  <si>
+    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
+  </si>
+  <si>
+    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
+  </si>
+  <si>
+    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
+  </si>
+  <si>
+    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
+  </si>
+  <si>
+    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
+  </si>
+  <si>
+    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
+  </si>
+  <si>
+    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
+  </si>
+  <si>
+    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
+  </si>
+  <si>
+    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
+  </si>
+  <si>
+    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
+  </si>
+  <si>
+    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
+  </si>
+  <si>
+    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
+  </si>
+  <si>
+    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
+  </si>
+  <si>
+    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
+  </si>
+  <si>
+    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
+  </si>
+  <si>
+    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
+  </si>
+  <si>
+    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
+  </si>
+  <si>
+    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
+  </si>
+  <si>
+    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
+  </si>
+  <si>
+    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
+  </si>
+  <si>
+    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
+  </si>
+  <si>
+    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
+  </si>
+  <si>
+    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
+  </si>
+  <si>
     <t>Игроки активно делятся своими впечатлениями от недавно вышедших игр и советами для новичков.</t>
   </si>
   <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях по миру.</t>
-  </si>
-  <si>
-    <t>Блогер-мотиватор опубликовал новую статью о методах улучшения психологического благополучия.</t>
-  </si>
-  <si>
-    <t>Профессиональные маркетологи делятся советами по увеличению конверсии в онлайн-бизнесе.</t>
-  </si>
-  <si>
-    <t>Блогер-путешественник поделился впечатлениями о своем последнем путешествии в тропический рай.</t>
-  </si>
-  <si>
-    <t>Популярные спортсмены делятся советами о физической активности и питании для поддержания здоровья.</t>
-  </si>
-  <si>
-    <t>Мировые СМИ отмечают увеличение числа подписчиков на новостных платформах во время последних событий.</t>
-  </si>
-  <si>
-    <t>Крупное новостное агентство запустило специальный раздел о космических открытиях и миссиях.</t>
-  </si>
-  <si>
-    <t>Известный журналист расследует скандал в правительстве и обещает представить эксклюзивные материалы.</t>
-  </si>
-  <si>
-    <t>Комедийный фестиваль представит новую команду юмористов, обещая ночь смеха и веселья.</t>
-  </si>
-  <si>
-    <t>Известный юморист выпустил новый стендап, в котором рассказал о повседневных нелепостях.</t>
-  </si>
-  <si>
-    <t>Компания Apple анонсировала новый смартфон с инновационной технологией сканирования радужки глаза.</t>
-  </si>
-  <si>
-    <t>Биткоин достиг нового исторического максимума, превысив отметку в $100,000.</t>
-  </si>
-  <si>
-    <t>Инфляция в стране достигла низших значений за последние 10 лет, спровоцировав рост потребительского спроса.</t>
-  </si>
-  <si>
-    <t>Кризис на рынке акций вызвал беспокойство среди инвесторов, но также создал возможности для долгосрочных инвестиций.</t>
-  </si>
-  <si>
-    <t>Экспорт сельскохозяйственной продукции увеличился благодаря новым торговым соглашениям.</t>
-  </si>
-  <si>
-    <t>Ведущие мировые биржи отметили новый рост цен на нефть, подталкивая акции нефтяных компаний вверх.</t>
-  </si>
-  <si>
-    <t>Индустрия музыки активно исследует влияние искусственного интеллекта на создание музыки.</t>
-  </si>
-  <si>
-    <t>Крупная технологическая компания представила концепт автономного беспилотного автомобиля будущего.</t>
-  </si>
-  <si>
-    <t>Крупная авиакомпания объявила о планах по внедрению экологически чистых самолетов в свой парк.</t>
-  </si>
-  <si>
-    <t>Крупная корпорация представила свою стратегию цифровой трансформации с целью улучшения эффективности бизнеса.</t>
-  </si>
-  <si>
-    <t>Банк представил новые условия по ипотечным кредитам, что может стимулировать рост рынка недвижимости.</t>
-  </si>
-  <si>
-    <t>Новый бизнес-инкубатор предоставит стартапам финансовую поддержку и экспертное сопровождение.</t>
-  </si>
-  <si>
-    <t>Онлайн-стриминговый сервис представил список ожидаемых фильмов и сериалов на ближайший год.</t>
-  </si>
-  <si>
-    <t>Команда программистов разработала новое приложение для планирования и автоматизации задач в рабочем процессе.</t>
-  </si>
-  <si>
-    <t>Молодой предприниматель запустил успешный онлайн-магазин с экологически чистыми товарами.</t>
-  </si>
-  <si>
-    <t>Стартап разработал умный городской транспорт, который снижает загрязнение воздуха и уровень пробок.</t>
-  </si>
-  <si>
-    <t>Стартап, разрабатывающий дронов для доставки еды, привлек новое крупное инвестиционное финансирование.</t>
-  </si>
-  <si>
-    <t>Новый круизный лайнер представил маршруты по изучению экзотических островов в Тихом океане.</t>
-  </si>
-  <si>
-    <t>Города-туристические дестинации представили новые проекты по сохранению культурного наследия.</t>
-  </si>
-  <si>
-    <t>Популярные туристические направления восстанавливаются после пандемии, привлекая множество посетителей.</t>
-  </si>
-  <si>
-    <t>Туристическое агентство запустило эксклюзивные путешествия для любителей экстрима и приключений.</t>
-  </si>
-  <si>
-    <t>Горнолыжные курорты собираются к новому сезону, предоставляя туристам широкий спектр развлечений.</t>
-  </si>
-  <si>
-    <t>Компания объявила о запуске программы обучения для предпринимателей и молодых бизнесменов.</t>
-  </si>
-  <si>
-    <t>Крупная маркетинговая агентство запустила инновационную рекламную кампанию с использованием VR-технологий.</t>
-  </si>
-  <si>
-    <t>Рекламные агентства активно исследуют возможности использования искусственного интеллекта для персонализации рекламы.</t>
-  </si>
-  <si>
-    <t>Психологические консультанты рекомендуют заниматься практикой благодарности для улучшения эмоционального состояния.</t>
-  </si>
-  <si>
-    <t>Психологи проводят исследование о влиянии социальных сетей на психическое здоровье подростков.</t>
-  </si>
-  <si>
-    <t>Исследование показало, что медитация и йога помогают снизить уровень стресса и тревожности у большинства людей.</t>
-  </si>
-  <si>
-    <t>Дизайн-агентство запустило кампанию по переосмыслению бренда крупной корпорации.</t>
-  </si>
-  <si>
-    <t>Дизайн-студия разработала инновационное упаковочное решение, снижающее экологическую нагрузку.</t>
-  </si>
-  <si>
-    <t>Мировые лидеры обсудили меры по разрешению конфликта в регионе и поддержке мира.</t>
-  </si>
-  <si>
-    <t>Кандидаты в президенты представили свои программы на предстоящих выборах, обещая реформы в экономике и образовании.</t>
-  </si>
-  <si>
-    <t>Международный суд рассматривает дело о нарушении прав человека в конфликтной зоне.</t>
-  </si>
-  <si>
-    <t>Главные новости дня: важные политические решения и международные соглашения.</t>
-  </si>
-  <si>
-    <t>Исследователи создали прорыв в области квантовых компьютеров, что может изменить будущее вычислительной техники.</t>
-  </si>
-  <si>
-    <t>Парламент принял новый закон о социальных выплатах, который вызвал активные обсуждения в обществе.</t>
-  </si>
-  <si>
-    <t>Команда ученых представила результаты своих исследований в области космической астрофизики.</t>
-  </si>
-  <si>
-    <t>Новая исследовательская статья о влиянии социальных сетей на формирование общественного мнения вызвала обсуждение.</t>
-  </si>
-  <si>
-    <t>Лидеры мировых держав провели встречу для обсуждения мер по снижению глобального изменения климата.</t>
-  </si>
-  <si>
-    <t>Эксперты прогнозируют устойчивый рост рынка криптовалют и инвестиций в этот сектор.</t>
-  </si>
-  <si>
-    <t>Политический аналитик дал свой прогноз на исход предстоящих выборов и их влияние на политическую сцену.</t>
-  </si>
-  <si>
-    <t>Искусственный интеллект успешно предсказал результаты последних выборов с точностью 95%.</t>
-  </si>
-  <si>
-    <t>Шоу-бизнес обсуждает номинантов на грядущую церемонию вручения премии за выдающиеся достижения в искусстве.</t>
-  </si>
-  <si>
-    <t>Картина художника получила мировое признание и была выставлена на аукционе с высокой оценкой.</t>
-  </si>
-  <si>
-    <t>Комикс-конвент приглашает всех поклонников косплея на выставку в стиле фантастики.</t>
+    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
+  </si>
+  <si>
+    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
+  </si>
+  <si>
+    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
   </si>
   <si>
     <t>Фестиваль кино и искусства собрал креативных режиссеров и актеров со всего мира.</t>
   </si>
   <si>
+    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
+  </si>
+  <si>
+    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
+  </si>
+  <si>
+    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+  </si>
+  <si>
+    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
+  </si>
+  <si>
+    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
+  </si>
+  <si>
+    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
+  </si>
+  <si>
+    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
+  </si>
+  <si>
+    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
+  </si>
+  <si>
+    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
+  </si>
+  <si>
+    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
+  </si>
+  <si>
     <t>Мастер-класс по вязанию собрал любителей рукоделия, желающих научиться создавать уникальные вещи.</t>
   </si>
   <si>
-    <t>Балетная труппа впечатлила зрителей новым спектаклем, сочетающим классику и современность.</t>
-  </si>
-  <si>
-    <t>Выставка современного искусства собрала лучшие произведения мировых дизайнеров и художников.</t>
-  </si>
-  <si>
-    <t>Музей современного искусства пригласил зрителей на интерактивную выставку, где можно стать частью произведений искусства.</t>
-  </si>
-  <si>
-    <t>Законодатели обсуждают новый проект закона о кибербезопасности и защите данных граждан.</t>
-  </si>
-  <si>
-    <t>Адвокаты предоставили свои комментарии по делу о нарушении авторских прав в музыкальной индустрии.</t>
-  </si>
-  <si>
-    <t>Верховный суд принял важное решение по делу о защите прав потребителей в интернете.</t>
-  </si>
-  <si>
-    <t>Группа правозащитников начала кампанию по борьбе за права меньшинств в обществе.</t>
-  </si>
-  <si>
-    <t>Студенты учатся в онлайн-формате, что изменяет традиционный образ образования.</t>
-  </si>
-  <si>
-    <t>Проект по обучению программированию в школах получил государственную поддержку и расширяется на всю страну.</t>
-  </si>
-  <si>
-    <t>Исследователи представили новые методы обучения, улучшающие понимание математики у школьников.</t>
-  </si>
-  <si>
-    <t>Университет запустил бесплатный онлайн-курс по искусственному интеллекту для всех желающих.</t>
-  </si>
-  <si>
-    <t>Чемпионат мира по футболу завершился с новым чемпионом и неожиданными результатами.</t>
-  </si>
-  <si>
-    <t>Молодые спортсмены побили рекорды в плавании и показали потенциал для будущих Олимпийских игр.</t>
-  </si>
-  <si>
-    <t>Олимпийские игры привлекли внимание мировых спортсменов и болельщиков, предоставив уникальные спортивные моменты.</t>
+    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
   </si>
   <si>
     <t>Теннисистка вернулась на корт после длительной паузы из-за травмы, вызвав аплодисменты зрителей.</t>
   </si>
   <si>
-    <t>Мировой рекордсмен по головоломкам показал свой новый трюк, оставив зрителей в восхищении.</t>
-  </si>
-  <si>
-    <t>Спортсмен выразил свою благодарность тренеру и команде за поддержку во время соревнований.</t>
-  </si>
-  <si>
-    <t>Мастерица представила свои авторские украшения из натуральных материалов на выставке искусства и ремесел.</t>
-  </si>
-  <si>
-    <t>Дизайнеры представили новую коллекцию осенней одежды с акцентом на экологическую устойчивость.</t>
-  </si>
-  <si>
-    <t>Успешный ресторанный бренд провел благотворительную акцию, что положительно повлияло на его имидж.</t>
-  </si>
-  <si>
-    <t>Дизайнеры работают над созданием виртуальных миров и интерфейсов для расширенной реальности.</t>
-  </si>
-  <si>
-    <t>Крупный косметический бренд анонсировал сотрудничество с известным визажистом для создания новой линии макияжа.</t>
-  </si>
-  <si>
-    <t>Косметологическая клиника предложила новые процедуры для ухода за кожей с использованием передовых технологий.</t>
-  </si>
-  <si>
-    <t>Швейный кружок организовал благотворительный ярмарку с handmade изделиями для сбора средств на нужды детей.</t>
-  </si>
-  <si>
-    <t>Мастерицы делятся идеями для создания уютных декоративных подушек своими руками.</t>
-  </si>
-  <si>
-    <t>Инфлюэнсеры стали важным каналом для продвижения продуктов и услуг, генерируя миллионы лайков и комментариев.</t>
-  </si>
-  <si>
-    <t>Мировые модельеры представили новые тренды в мире моды на неделях моды в Париже и Нью-Йорке.</t>
-  </si>
-  <si>
-    <t>Терапевты рассказывают о методах борьбы с посттравматическим стрессом у ветеранов.</t>
-  </si>
-  <si>
-    <t>Мировые ученые исследуют влияние психического здоровья на общее благополучие и продолжительность жизни.</t>
-  </si>
-  <si>
-    <t>Медицинский центр представил новую технологию диагностики и лечения сердечных заболеваний.</t>
-  </si>
-  <si>
-    <t>Научные исследования обнаружили новые методы лечения рака, увеличивая шансы на выздоровление.</t>
-  </si>
-  <si>
-    <t>Врачи рассказывают о важности профилактики и здорового образа жизни для предотвращения хронических заболеваний.</t>
-  </si>
-  <si>
-    <t>Фотограф выпустил книгу, собрав в ней свои лучшие работы, сделанные в разных уголках мира.</t>
-  </si>
-  <si>
-    <t>Фотограф-путешественник поделился впечатляющими фотографиями с экспедиции на Антарктиду.</t>
-  </si>
-  <si>
-    <t>Фотожурналисты документируют важные события и исторические моменты через объектив камеры.</t>
-  </si>
-  <si>
-    <t>Национальный географический журнал представил коллекцию фотографий дикой природы и животных.</t>
-  </si>
-  <si>
-    <t>Фотограф опубликовал впечатляющий снимок звездного неба, сделанный в удаленной местности.</t>
-  </si>
-  <si>
-    <t>Инновационное приложение для обучения иностранным языкам получило множество положительных отзывов от пользователей.</t>
-  </si>
-  <si>
-    <t>Разработчики мессенджера выпустили обновление с расширенными возможностями шифрования сообщений.</t>
-  </si>
-  <si>
-    <t>Популярное приложение для здоровья и фитнеса обновило интерфейс и добавило новые функции.</t>
-  </si>
-  <si>
-    <t>Популярный психолог опубликовал книгу о саморазвитии, которая стала бестселлером.</t>
-  </si>
-  <si>
-    <t>Завершились съемки долгожданного блокбастера, который обещает стать хитом кинопроката.</t>
-  </si>
-  <si>
-    <t>Документальный фильм о жизни известной личности вызвал обсуждение и восхищение зрителей.</t>
+    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
   </si>
   <si>
     <t>Актриса получила премию за выдающуюся роль в последнем фильме и выразила благодарность своей команде.</t>
   </si>
   <si>
-    <t>Мировые звезды музыки поднимают важные социальные вопросы в своих песнях, привлекая внимание общества.</t>
-  </si>
-  <si>
-    <t>Популярная певица готовится к мировому турне, который ожидается как одно из главных музыкальных событий года.</t>
-  </si>
-  <si>
-    <t>Известная рок-группа выпустила новый альбом, который сразу же стал лидером чартов.</t>
-  </si>
-  <si>
-    <t>Музыкальная индустрия ожидает выпуска альбома от известной группы, которая вернулась после долгого перерыва.</t>
-  </si>
-  <si>
-    <t>Игровая компания представила новый симулятор виртуальной реальности с потрясающей графикой.</t>
-  </si>
-  <si>
-    <t>Игровая индустрия обсуждает будущее виртуальной реальности и ее потенциал в игровых мирах.</t>
-  </si>
-  <si>
-    <t>Ожидается выпуск долгожданной игры с открытым миром, который обещает быть огромным и интересным.</t>
-  </si>
-  <si>
-    <t>Известный разработчик анонсировал новую часть популярной игровой франшизы, вызвав ажиотаж среди фанатов.</t>
-  </si>
-  <si>
-    <t>Игровой турнир собрал лучших киберспортсменов со всего мира для борьбы за призовой фонд.</t>
-  </si>
-  <si>
-    <t>Популярный шеф-повар представил новое меню в своем ресторане, вдохновленное сезонными продуктами.</t>
-  </si>
-  <si>
-    <t>Фестиваль стрит-фуда привлекает гурманов со всего города, представляя блюда из разных кухонь мира.</t>
-  </si>
-  <si>
-    <t>Повара проводят мастер-классы по приготовлению блюд с использованием местных продуктов.</t>
-  </si>
-  <si>
-    <t>Известный ресторан получил международное признание за свою кулинарную креативность и уникальные блюда.</t>
-  </si>
-  <si>
-    <t>Кулинарный блогер поделился рецептом приготовления популярного десерта, который можно сделать в домашних условиях.</t>
-  </si>
-  <si>
-    <t>Мудрая цитата: 'Самая большая награда за труд – это не то, что ты заработал, а кто ты стал в процессе.'</t>
-  </si>
-  <si>
-    <t>Мотивационная цитата: 'Путь к успеху начинается с первого шага, и каждый следующий шаг приближает тебя к цели.'</t>
-  </si>
-  <si>
-    <t>Известный философ сказал: 'Истинное богатство – это способность быть счастливым с тем, что у тебя есть.'</t>
-  </si>
-  <si>
-    <t>Цитата дня: 'Умение радоваться мелочам делает жизнь богаче.'</t>
-  </si>
-  <si>
-    <t>Известный лидер сказал: 'Любовь и сострадание - ключи к гармоничным отношениям и миру в мире.'</t>
-  </si>
-  <si>
-    <t>Художники выпустили новую коллекцию ручной росписи на керамике, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Криптовалютные инвестиции привлекают внимание как опытных, так и новичков-инвесторов, предоставляя высокий рост активов.</t>
-  </si>
-  <si>
-    <t>Страны рассматривают варианты создания собственных цифровых валют национальных банков.</t>
-  </si>
-  <si>
-    <t>Эксперты предупреждают о рисках инвестирования в альткоины, призывая осторожность.</t>
-  </si>
-  <si>
-    <t>Регуляторы разрабатывают новые правила для регулирования криптовалютных бирж и ICO-проектов.</t>
-  </si>
-  <si>
-    <t>Экономисты анализируют влияние инфляции на покупательскую способность населения и финансовый рынок.</t>
-  </si>
-  <si>
-    <t>Инвесторы активно исследуют возможности вложений в зеленые технологии и экологически чистые компании.</t>
-  </si>
-  <si>
-    <t>Крупные финансовые институты увеличивают свои инвестиции в криптовалютные активы.</t>
+    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
+  </si>
+  <si>
+    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
+  </si>
+  <si>
+    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
   </si>
   <si>
     <t>Звезда кино инвестировала в свой собственный бренд парфюмерии, который стал хитом продаж.</t>
   </si>
   <si>
-    <t>Популярный музыкальный фестиваль объявил список исполнителей на главной сцене.</t>
-  </si>
-  <si>
-    <t>Кинокомпания анонсировала выпуск продолжения популярной комедии, вызвав радостные реакции фанатов.</t>
-  </si>
-  <si>
-    <t>Известный дизайнер представил новую коллекцию мебели, вдохновленную природой.</t>
-  </si>
-  <si>
-    <t>Известный художник представил выставку своих новых произведений, вдохновленных природой и мифологией.</t>
-  </si>
-  <si>
-    <t>Известный режиссер анонсировал работу над новым проектом, ориентированным на фанатов научной фантастики.</t>
-  </si>
-  <si>
     <t>Молодая певица представила свою дебютную песню, завоевав слушателей своим талантом.</t>
-  </si>
-  <si>
-    <t>Талантливый молодой актер получил приглашение на главную роль в новом голливудском блокбастере.</t>
-  </si>
-  <si>
-    <t>Популярный блогер рассказал о своей новой книге, посвященной приключениям в путешествиях.</t>
-  </si>
-  <si>
-    <t>Известный блогер проведет онлайн-мастер-класс по созданию стильных образов на осенний сезон.</t>
-  </si>
-  <si>
-    <t>Знаменитая актриса объявила о своем участии в новом кинопроекте, который вызвал интерес у фанатов.</t>
   </si>
 </sst>
 </file>
@@ -651,7 +648,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>391668</xdr:colOff>
+      <xdr:colOff>382524</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -671,7 +668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="190500"/>
-          <a:ext cx="6487668" cy="3758184"/>
+          <a:ext cx="6478524" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,7 +686,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>391668</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -709,7 +706,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="4572000"/>
-          <a:ext cx="6487668" cy="3758184"/>
+          <a:ext cx="6492240" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -726,8 +723,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>513588</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589788</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -747,7 +744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="8953500"/>
-          <a:ext cx="3561588" cy="3758184"/>
+          <a:ext cx="4247388" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,10 +1072,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1092,10 +1089,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1126,10 +1123,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1160,10 +1157,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1177,10 +1174,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1194,13 +1191,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1211,10 +1208,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1228,10 +1225,10 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1245,10 +1242,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1262,10 +1259,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1279,10 +1276,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,10 +1293,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,10 +1310,10 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1347,10 +1344,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1364,10 +1361,10 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1398,10 +1395,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1415,10 +1412,10 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1432,10 +1429,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1449,10 +1446,10 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1466,10 +1463,10 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1483,10 +1480,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1500,10 +1497,10 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1517,10 +1514,10 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1534,10 +1531,10 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1568,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1591,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1602,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1613,10 +1610,32 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1625,381 +1644,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>94</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2024,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2035,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2046,10 +1690,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2057,10 +1701,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2068,9 +1712,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2093,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2104,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2115,10 +1759,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2126,10 +1770,352 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2165,7 +2151,7 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2173,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2187,7 +2173,7 @@
         <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2195,10 +2181,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2206,10 +2192,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2217,10 +2203,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2216,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2253,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2264,10 +2250,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2275,10 +2261,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2286,10 +2272,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2297,10 +2283,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2308,10 +2294,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2319,10 +2305,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2330,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2341,21 +2327,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2340,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2388,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2399,10 +2374,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2413,7 +2388,7 @@
         <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2421,21 +2396,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2409,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2455,78 +2419,12 @@
     <col min="3" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>88</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2570,10 +2468,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2581,10 +2479,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2592,10 +2490,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2603,10 +2501,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2615,6 +2513,191 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2639,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2650,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2661,10 +2744,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2672,7 +2755,385 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2697,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2708,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2719,10 +3180,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2730,661 +3191,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>140</v>
-      </c>
-      <c r="C5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>114</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>116</v>
-      </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>128</v>
-      </c>
-      <c r="C2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>133</v>
-      </c>
-      <c r="C6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>106</v>
-      </c>
-      <c r="C3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>139</v>
-      </c>
-      <c r="C9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3445,7 +3255,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3456,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3276,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3489,10 +3299,109 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
+      <c r="C11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3525,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3536,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3547,10 +3456,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3561,7 +3470,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3569,10 +3478,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3580,10 +3489,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3593,7 +3502,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3616,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3627,10 +3536,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3638,10 +3547,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3649,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3660,10 +3569,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3671,10 +3580,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3682,10 +3591,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3693,32 +3602,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3728,32 +3615,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3776,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3787,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3798,10 +3660,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3809,10 +3671,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3820,10 +3682,134 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
-        <v>67</v>
+      <c r="C8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/api/INPUT_/answer.xlsx
+++ b/server/src/api/INPUT_/answer.xlsx
@@ -150,15 +150,15 @@
     <t>Сообщения без дубликатов</t>
   </si>
   <si>
+    <t>Первая в мире GeForce RTX 4070, к которой не нужно подключать никаких кабелей питания. Представлена Asus GeForce RTX 4070 Gaming BTF</t>
+  </si>
+  <si>
+    <t>Tesla заново изобретает автомобилестроение» Компания хочет создавать почти всю нижнюю часть авто в виде одной детали</t>
+  </si>
+  <si>
     <t>В России запустили отечественную блокчейн-платформу «Конфидент» В России запустили полностью отечественную блокчейн-платформу «Конфидент»Новая разработка представляет собой готовую инфраструктуру для информационных блокчейн-систем — от слоя для работы нод сети до уровня приложений, где выполняются автоматизированные бизнес-процессы</t>
   </si>
   <si>
-    <t>Первая в мире GeForce RTX 4070, к которой не нужно подключать никаких кабелей питания. Представлена Asus GeForce RTX 4070 Gaming BTF</t>
-  </si>
-  <si>
-    <t>Tesla заново изобретает автомобилестроение» Компания хочет создавать почти всю нижнюю часть авто в виде одной детали</t>
-  </si>
-  <si>
     <t>Швейцария обогнала США по уровню принятия криптовалютm. Лидирующую позицию в рейтинге стран по готовности к внедрению цифровых активов второй год подряд занимает Гонконг</t>
   </si>
   <si>
@@ -171,22 +171,22 @@
     <t>Польша проведет учения с использованием новых танков K2 у границы с Россией</t>
   </si>
   <si>
+    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
+  </si>
+  <si>
+    <t>«Спартак» при необходимости поможет Промесу в получении паспорта РФ</t>
+  </si>
+  <si>
+    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
+  </si>
+  <si>
     <t>Гол Бабича на 91‑й минуте принес «Спартаку» победу над «Сочи» в матче РПЛ</t>
   </si>
   <si>
-    <t>ВИДЕО: новичок «Пари НН» пяткой (!) сравнял счет на 88-й минуте в дебютном (!!) матче, выйдя за 6 минут (!!!) до этого</t>
-  </si>
-  <si>
-    <t>Александр Головин забил мяч за «Монако» во втором матче подряд</t>
-  </si>
-  <si>
     <t>Платье, брюки, рюкзаки и самокат: что понадобится подросткам осенью</t>
   </si>
   <si>
     <t>Как одеться в стиле old money: берем пример с «Наследников» и «Короны»</t>
-  </si>
-  <si>
-    <t>«Спартак» при необходимости поможет Промесу в получении паспорта РФ</t>
   </si>
   <si>
     <t>Звезда турецкого шоу-бизнеса Демет Оздемир вновь оказалась в центре скандала. Недавно появились сообщения о том, что актриса приобрела дом в Афинах и обрела вторую половинку в лице греческого диджея Серджио.</t>
@@ -279,7 +279,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>512064</xdr:colOff>
+      <xdr:colOff>585216</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138684</xdr:rowOff>
     </xdr:to>
@@ -299,7 +299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10020300" y="190500"/>
-          <a:ext cx="4169664" cy="3758184"/>
+          <a:ext cx="4242816" cy="3758184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -754,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -805,10 +805,10 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1404,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -1438,12 +1438,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1451,82 +1473,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1549,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1560,10 +1507,332 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1571,145 +1840,95 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1732,96 +1951,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1829,106 +1962,70 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="150.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1954,7 +2051,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1962,106 +2059,9 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
         <v>38</v>
       </c>
     </row>
